--- a/biology/Botanique/Araucaria_hunsteinii/Araucaria_hunsteinii.xlsx
+++ b/biology/Botanique/Araucaria_hunsteinii/Araucaria_hunsteinii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Araucaria hunsteinii (Klinki ou Klinkii) est une espèce d’Araucaria originaire des montagnes de Papouasie-Nouvelle-Guinée. Elle est menacée par la destruction de son habitat.
 C'est un grand arbre à feuillage persistant (le plus grand en Nouvelle-Guinée, et le plus grand dans sa famille), il peut mesurer entre 50 et 80 de haut, avec un tronc mesurant plus de 3 m de diamètre. Les branches sont horizontales, produites en verticilles de cinq ou six. Les feuilles sont disposées en spirale, en forme d'écailles ou d'aiguilles de 6 à 12 cm de long et 1,5 à 2 cm de large à la base, avec une pointe large; les feuilles sur les jeunes arbres sont plus courtes (moins de 9 cm) et plus étroites (moins de 1,5 cm). Monoïque, il porte généralement à la fois des cônes mâles et des cônes femelles; les cônes polliniques sont longs et fins, mesurant plus de 20 cm de long et 1 cm de large; les cônes ovulés sont ovales, mesurant plus de 25 cm de long et 14 à 16 cm en largeur. Les cônes femelles se désagrèges à maturité pour libérer les nombreuses graines mesurant entre 3 et 4 cm de long.    
